--- a/GRADE.xlsx
+++ b/GRADE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\PROJECT\grade_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FC72D5-68E4-4BCA-AF83-28959E9B9F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57380979-74F4-4539-AA25-160ECF9D19B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="8">
   <si>
     <t>INTERNAL</t>
   </si>
@@ -407,8 +407,8 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,9 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
@@ -490,7 +492,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
@@ -511,7 +515,9 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
@@ -532,7 +538,9 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -553,7 +561,9 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -574,7 +584,9 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
@@ -595,7 +607,9 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
@@ -616,7 +630,9 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
@@ -637,7 +653,9 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
@@ -658,7 +676,9 @@
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
@@ -679,7 +699,9 @@
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
@@ -700,7 +722,9 @@
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
@@ -721,7 +745,9 @@
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
@@ -742,7 +768,9 @@
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
@@ -763,7 +791,9 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
@@ -784,7 +814,9 @@
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
@@ -805,7 +837,9 @@
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
@@ -826,7 +860,9 @@
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
@@ -847,7 +883,9 @@
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
@@ -868,7 +906,9 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
@@ -889,7 +929,9 @@
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
@@ -910,7 +952,9 @@
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
@@ -931,7 +975,9 @@
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
@@ -952,7 +998,9 @@
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
@@ -973,7 +1021,9 @@
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D27" s="2">
         <v>100</v>
       </c>
@@ -994,7 +1044,9 @@
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D28" s="2">
         <v>98</v>
       </c>
@@ -1015,7 +1067,9 @@
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D29" s="2">
         <v>96</v>
       </c>
@@ -1036,7 +1090,9 @@
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D30" s="2">
         <v>94</v>
       </c>
@@ -1057,7 +1113,9 @@
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D31" s="2">
         <v>92</v>
       </c>
@@ -1078,7 +1136,9 @@
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D32" s="2">
         <v>90</v>
       </c>
@@ -1099,7 +1159,9 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D33" s="2">
         <v>88</v>
       </c>
@@ -1120,7 +1182,9 @@
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D34" s="2">
         <v>86</v>
       </c>
@@ -1141,7 +1205,9 @@
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D35" s="2">
         <v>84</v>
       </c>
@@ -1162,7 +1228,9 @@
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D36" s="2">
         <v>82</v>
       </c>
@@ -1183,7 +1251,9 @@
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D37" s="2">
         <v>80</v>
       </c>
